--- a/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
+++ b/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11078"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11076"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliação" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Peso</t>
   </si>
@@ -648,19 +648,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="71.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="9" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E2" s="10" t="s">
         <v>64</v>
       </c>
@@ -688,7 +688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
@@ -705,7 +705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -730,11 +730,13 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
@@ -743,11 +745,13 @@
       <c r="I6" s="18"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
@@ -756,11 +760,13 @@
       <c r="I7" s="18"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
@@ -769,11 +775,13 @@
       <c r="I8" s="18"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
@@ -782,21 +790,21 @@
       <c r="I9" s="18"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="18"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="18"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0.05</v>
       </c>
@@ -806,7 +814,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
@@ -815,7 +823,7 @@
       <c r="D13" s="18"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -825,7 +833,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
@@ -834,14 +842,14 @@
       <c r="D16" s="14"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="18"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
@@ -850,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0.4</v>
       </c>
@@ -860,32 +868,34 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="18"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="18"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="14"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
@@ -894,14 +904,14 @@
       <c r="I23" s="18"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="14"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>0.1</v>
       </c>
@@ -911,24 +921,24 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="18"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="14"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>0.1</v>
       </c>
@@ -938,7 +948,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -946,7 +956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -955,7 +965,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>17</v>
       </c>
@@ -963,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -971,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -979,38 +989,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" t="s">
         <v>33</v>
@@ -1048,13 +1058,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="63.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>

--- a/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
+++ b/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11076"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliação" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Peso</t>
   </si>
@@ -88,18 +88,6 @@
     <t>Individual</t>
   </si>
   <si>
-    <t>Nr. aluno 1</t>
-  </si>
-  <si>
-    <t>Nr. aluno 2</t>
-  </si>
-  <si>
-    <t>Nr. aluno 3</t>
-  </si>
-  <si>
-    <t>Nr. aluno 5</t>
-  </si>
-  <si>
     <t>Existe um registo regular da sua atividade no bitbucket  (individual)</t>
   </si>
   <si>
@@ -214,16 +202,16 @@
     <t>Manuel Correira</t>
   </si>
   <si>
-    <t>Daniel Bento</t>
-  </si>
-  <si>
     <t>Carolina Barros</t>
+  </si>
+  <si>
+    <t>Daniel    Bento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,7 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -351,6 +338,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,21 +641,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="71.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="9" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="9" width="11.453125" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -671,41 +664,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="10" t="s">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="E2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E3" s="18">
+        <v>1121107</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1101516</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1120557</v>
+      </c>
+      <c r="H3" s="18">
         <v>1120569</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="18">
+        <v>1130739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,113 +710,137 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>0.05</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -833,32 +850,36 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="J18" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>0.4</v>
       </c>
@@ -868,50 +889,58 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>0.1</v>
       </c>
@@ -921,24 +950,26 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>0.1</v>
       </c>
@@ -948,82 +979,82 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
       <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="11"/>
+      <c r="C41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="12"/>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1065,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
+            <xm:f>'C:\TudoPortatil\ISEP\BD\2017-2018\[BDDAD_Avaliação_TP_Parte2_AJO.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F31</xm:sqref>
         </x14:dataValidation>
@@ -1055,90 +1086,90 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.4</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.6</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0.85</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
+++ b/Documentacao/Entrega 2/Autoavaliação/Autoavaliação TP2 - Grupo 1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliação" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Peso</t>
   </si>
@@ -211,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -309,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,22 +647,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="71.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="9" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -664,7 +673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E2" s="19" t="s">
         <v>59</v>
       </c>
@@ -681,7 +690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="18">
         <v>1121107</v>
       </c>
@@ -698,7 +707,7 @@
         <v>1130739</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.1</v>
       </c>
@@ -723,14 +732,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="17" t="s">
         <v>41</v>
       </c>
@@ -742,7 +753,7 @@
       </c>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>33</v>
       </c>
@@ -763,14 +774,16 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>41</v>
       </c>
@@ -782,14 +795,16 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>45</v>
       </c>
@@ -801,7 +816,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
@@ -810,7 +825,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
@@ -819,7 +834,7 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.05</v>
       </c>
@@ -829,7 +844,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
@@ -840,7 +855,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.25</v>
       </c>
@@ -850,7 +865,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
@@ -859,7 +874,7 @@
       <c r="D16" s="13"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -868,7 +883,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
@@ -879,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.4</v>
       </c>
@@ -889,7 +904,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -898,7 +913,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -907,21 +922,23 @@
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="13"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>45</v>
       </c>
@@ -933,14 +950,14 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="13"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.1</v>
       </c>
@@ -950,7 +967,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -959,17 +976,17 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="13"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0.1</v>
       </c>
@@ -979,7 +996,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -996,7 +1013,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -1020,38 +1037,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>29</v>
@@ -1063,17 +1080,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'C:\TudoPortatil\ISEP\BD\2017-2018\[BDDAD_Avaliação_TP_Parte2_AJO.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Lista de classificação'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D20:D21 E23:I23 D17:D18 D13 D10:D11 E6:I9 D26</xm:sqref>
+          <xm:sqref>D20:D21 E6:I9 D17:D18 D13 D10:D11 D26 E23:I23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1082,20 +1099,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1106,7 +1123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1117,7 +1134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1139,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1161,7 +1178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
